--- a/medicine/Mort/Terrorisme_en_1995/Terrorisme_en_1995.xlsx
+++ b/medicine/Mort/Terrorisme_en_1995/Terrorisme_en_1995.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chronologie du terrorisme
@@ -525,32 +537,341 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-30 janvier, Algérie : un attentat-suicide au camion piégé dans une foule à Alger fait quarante-deux morts. Il est revendiqué par le GIA[1].
-Février
-20 février, Irak : un attentat à la voiture piégée à Zakho fait soixante-seize morts et cent vingt-trois blessés[réf. souhaitée].
-Mars
-20 mars, Japon : un attentat au gaz sarin dans le métro de Tokyo cause la mort de douze personnes et l'intoxication d'environ 5 500 autres. Cet attentat est revendiqué par la secte Aum Shinrikyo[2].
-Avril
-19 avril, États-Unis : l'attentat d'Oklahoma City fait cent soixante-huit morts — dont dix-neuf enfants — et six cent quatre-vingt blessés[3],[4].
-Mai
-Juin
-10 juin, Colombie : un attentat contre une kermesse à Medellin fait morts[réf. souhaitée].
-14 juin, Russie : la prise d'otages de Boudionnovsk fait cent soixante-six morts et plus de quatre cents blessés[5].
-Juillet
-23 juillet, Algérie : l'explosion d'un camion piégé à Meftah fait vingt morts[6].
-25 juillet, France : un attentat à la station Saint-Michel, fait huit morts et cent dix-sept blessés[7],[8],[9]. Entre juillet et octobre 1995, la France est touchée par huit attentats, qui feront dix morts et une centaine de blessés. Ces attaques sont attribuées au Groupe islamique armé[7].
-Août
-9 août, Canada : un attentat à la voiture piégée à Montréal, attribué aux Hells Angels, cause la mort de deux personnes, dont un enfant de onze ans, Daniel Desrochers[réf. souhaitée].
-Septembre
-Octobre
-1er octobre, États-Unis : Omar Abdel Rahman est reconnu coupable de complot terroriste à New York[4]. Il est en plus soupçonné d'avoir planifié l'attentat au camion piégé dans le sous-sol du World Trade Center, bien qu'il n'ait pas été jugé pour cette attaque[10].
-9 octobre, États-Unis : un train assurant la liaison Miami-Los Angeles déraille dans l'Arizona après un attentat revendiqué par un groupe inconnu, « Les fils de la Gestapo ». L'attentat fait un mort et plus de quatre-vingt blessés[4].
-Novembre
-13 novembre, Arabie saoudite : Al-Qaïda revendique un attentat-suicide contre une base militaire américaine, à Riyad. L'attaque fait cinq morts[1]
-19 novembre, Pakistan : un attentat au camion piégé contre l'ambassade égyptienne, au Pakistan,fait seize morts[1],[11].
-Décembre
-11 décembre, Espagne : une voiture piégée d'ETA explose au passage d'un bus militaire à Madrid et fait six morts[12][réf. obsolète].
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>30 janvier, Algérie : un attentat-suicide au camion piégé dans une foule à Alger fait quarante-deux morts. Il est revendiqué par le GIA.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1995</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1995</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>20 février, Irak : un attentat à la voiture piégée à Zakho fait soixante-seize morts et cent vingt-trois blessés[réf. souhaitée].</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1995</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1995</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>20 mars, Japon : un attentat au gaz sarin dans le métro de Tokyo cause la mort de douze personnes et l'intoxication d'environ 5 500 autres. Cet attentat est revendiqué par la secte Aum Shinrikyo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1995</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1995</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>19 avril, États-Unis : l'attentat d'Oklahoma City fait cent soixante-huit morts — dont dix-neuf enfants — et six cent quatre-vingt blessés,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1995</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1995</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>10 juin, Colombie : un attentat contre une kermesse à Medellin fait morts[réf. souhaitée].
+14 juin, Russie : la prise d'otages de Boudionnovsk fait cent soixante-six morts et plus de quatre cents blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1995</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1995</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>23 juillet, Algérie : l'explosion d'un camion piégé à Meftah fait vingt morts.
+25 juillet, France : un attentat à la station Saint-Michel, fait huit morts et cent dix-sept blessés. Entre juillet et octobre 1995, la France est touchée par huit attentats, qui feront dix morts et une centaine de blessés. Ces attaques sont attribuées au Groupe islamique armé.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1995</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1995</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>9 août, Canada : un attentat à la voiture piégée à Montréal, attribué aux Hells Angels, cause la mort de deux personnes, dont un enfant de onze ans, Daniel Desrochers[réf. souhaitée].</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1995</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1995</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1er octobre, États-Unis : Omar Abdel Rahman est reconnu coupable de complot terroriste à New York. Il est en plus soupçonné d'avoir planifié l'attentat au camion piégé dans le sous-sol du World Trade Center, bien qu'il n'ait pas été jugé pour cette attaque.
+9 octobre, États-Unis : un train assurant la liaison Miami-Los Angeles déraille dans l'Arizona après un attentat revendiqué par un groupe inconnu, « Les fils de la Gestapo ». L'attentat fait un mort et plus de quatre-vingt blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1995</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1995</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>13 novembre, Arabie saoudite : Al-Qaïda revendique un attentat-suicide contre une base militaire américaine, à Riyad. L'attaque fait cinq morts
+19 novembre, Pakistan : un attentat au camion piégé contre l'ambassade égyptienne, au Pakistan,fait seize morts,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1995</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1995</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>11 décembre, Espagne : une voiture piégée d'ETA explose au passage d'un bus militaire à Madrid et fait six morts[réf. obsolète].
 22 décembre, Pakistan : un attentat à la voiture piégée à Peshawar fait trente-deux morts et cent dix-sept blessés[réf. nécessaire].</t>
         </is>
       </c>
